--- a/Supplementary_Table_4.xlsx
+++ b/Supplementary_Table_4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1B30F-3541-440E-A0A4-BC77271ADEA2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ED5806-CAA3-4C5D-961B-7414ACD7A461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLA-B2705" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB6A4EF-E060-4639-AC0C-7A93CE1D6AC6}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:I58"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2672,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF4EDBC-7B69-4582-8D83-36210EC4520C}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:G55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3895,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175330AE-ABDD-494D-9B62-746D5C12E421}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
